--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3170113.239933471</v>
+        <v>3167862.421547578</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="C2" t="n">
-        <v>354.7778438405606</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>68.25327490405893</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>203.1269667959759</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492393</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.4425172951285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.69387841119128</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>114.4746605491541</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>86.35637760850533</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604492</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.42081039547514</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>209.56751933207</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.2808324720642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>17.15794421524278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744752</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>32.52207646038678</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>126.5660981224321</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>17.19701978441024</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>51.19843204834081</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>35.52782197061614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>26.03456888002325</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.60876728915635</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I37" t="n">
         <v>67.95608738100148</v>
@@ -3487,7 +3487,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>190.1883203232582</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534539</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3661,25 +3661,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>47.3379739444492</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>116.2545588574944</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>61.44461123685871</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
         <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100147</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
@@ -3964,7 +3964,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>15.71514184780058</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,22 +4135,22 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.54013967606469</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121065</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T46" t="n">
         <v>191.1526162473326</v>
@@ -4195,7 +4195,7 @@
         <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077544</v>
+        <v>254.1620841758728</v>
       </c>
       <c r="X46" t="n">
         <v>197.3133223602005</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>433.1733450557858</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.7731851199076</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1783.124109094748</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1414.161592154336</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1055.895893547586</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>670.1076409493417</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>259.1217361597341</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2169.72394915887</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>2169.72394915887</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4753,13 +4753,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
         <v>281.9325327183818</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,13 +5157,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5203,10 +5203,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>709.686441383852</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858346</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998327</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,16 +5276,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
         <v>2667.236715577531</v>
@@ -5303,19 +5303,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5358,7 +5358,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,16 +5367,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>252.1734574999392</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>252.1734574999392</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201817</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221643</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786342</v>
+        <v>399.0634049978496</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494848</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763699</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5634,7 +5634,7 @@
         <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
         <v>1138.808109517387</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3805104860112</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3805104860112</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736755</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5701,22 +5701,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608814</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>1043.811105357799</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>815.8215544597812</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.028975316251</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5756,46 +5756,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364129</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G21" t="n">
         <v>205.070220408989</v>
@@ -5829,52 +5829,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839448</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839448</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839448</v>
+        <v>463.5164092615011</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839448</v>
+        <v>315.6033156791079</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811976</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811976</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811976</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501055</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208119</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838513</v>
+        <v>841.622599571854</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221643</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786342</v>
+        <v>613.6330486738368</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2649.230460361821</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,13 +6078,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736755</v>
+        <v>210.2179684131226</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6163,7 +6163,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
@@ -6172,25 +6172,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608814</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W25" t="n">
-        <v>841.6225995718536</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X25" t="n">
-        <v>613.6330486738362</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.8404695303062</v>
+        <v>391.8664332433623</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839439</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839439</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6564,28 +6564,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015822</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736753</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736753</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1828.498922546691</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1606.732307116217</v>
+        <v>1657.456397634098</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.732307116217</v>
+        <v>1368.353530759742</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.04781891033</v>
+        <v>1113.669042553855</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.630648873369</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753521</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.8485188318219</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,49 +6701,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,10 +6789,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383116</v>
+        <v>625.4381290929589</v>
       </c>
       <c r="C34" t="n">
-        <v>420.7572410106946</v>
+        <v>625.4381290929589</v>
       </c>
       <c r="D34" t="n">
-        <v>420.7572410106946</v>
+        <v>625.4381290929589</v>
       </c>
       <c r="E34" t="n">
-        <v>420.7572410106946</v>
+        <v>506.2082001861584</v>
       </c>
       <c r="F34" t="n">
-        <v>420.7572410106946</v>
+        <v>388.0014173638406</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610061</v>
+        <v>248.9817454141523</v>
       </c>
       <c r="H34" t="n">
-        <v>164.2035469544565</v>
+        <v>131.4477233076026</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,13 +6859,13 @@
         <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
         <v>1487.357919090857</v>
@@ -6883,13 +6883,13 @@
         <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
         <v>1764.008960873747</v>
       </c>
       <c r="U34" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
         <v>1277.587935144689</v>
@@ -6898,10 +6898,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608962</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929585</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750059</v>
@@ -7014,19 +7014,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383113</v>
+        <v>798.4469709921275</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4728289383113</v>
+        <v>658.1939527398131</v>
       </c>
       <c r="D37" t="n">
-        <v>351.0393542015681</v>
+        <v>658.1939527398131</v>
       </c>
       <c r="E37" t="n">
-        <v>281.7375690610062</v>
+        <v>538.9640238330124</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7375690610062</v>
+        <v>420.7572410106947</v>
       </c>
       <c r="G37" t="n">
         <v>281.7375690610062</v>
@@ -7111,7 +7111,7 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P37" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q37" t="n">
         <v>2181.242423693089</v>
@@ -7120,7 +7120,7 @@
         <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
         <v>1764.008960873747</v>
@@ -7135,10 +7135,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608962</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.4381290929585</v>
+        <v>824.7445153153833</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>301.7164587107644</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>956.4397908460641</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7281,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,13 +7290,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.4728289383117</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="C40" t="n">
-        <v>472.4728289383117</v>
+        <v>332.2198106859976</v>
       </c>
       <c r="D40" t="n">
-        <v>351.0393542015686</v>
+        <v>332.2198106859976</v>
       </c>
       <c r="E40" t="n">
-        <v>351.0393542015686</v>
+        <v>212.9898817791968</v>
       </c>
       <c r="F40" t="n">
-        <v>303.223218904145</v>
+        <v>212.9898817791968</v>
       </c>
       <c r="G40" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N40" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O40" t="n">
         <v>1814.799887709819</v>
@@ -7354,28 +7354,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S40" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
         <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W40" t="n">
         <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608964</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.4381290929589</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="41">
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,16 +7518,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.620121505191</v>
+        <v>801.6736629065531</v>
       </c>
       <c r="C43" t="n">
-        <v>393.3671032528767</v>
+        <v>661.4206446542385</v>
       </c>
       <c r="D43" t="n">
-        <v>393.3671032528767</v>
+        <v>539.9871699174952</v>
       </c>
       <c r="E43" t="n">
-        <v>393.3671032528767</v>
+        <v>420.7572410106947</v>
       </c>
       <c r="F43" t="n">
-        <v>275.160320430559</v>
+        <v>420.7572410106947</v>
       </c>
       <c r="G43" t="n">
-        <v>213.0950565549441</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
@@ -7588,31 +7588,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S43" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1825.156253440626</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.0012223502</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X43" t="n">
-        <v>878.6948361277756</v>
+        <v>817.5475435608971</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.5854216598382</v>
+        <v>801.6736629065531</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089256</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,22 +7728,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383127</v>
+        <v>476.4774563442525</v>
       </c>
       <c r="C46" t="n">
-        <v>472.4728289383127</v>
+        <v>336.2244380919381</v>
       </c>
       <c r="D46" t="n">
-        <v>351.0393542015695</v>
+        <v>214.790963355195</v>
       </c>
       <c r="E46" t="n">
-        <v>351.0393542015695</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>232.8325713792518</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>213.0950565549441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7807,49 +7807,49 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883477</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>1957.09241162863</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.008960873749</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.589258674985</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
         <v>1277.58793514469</v>
       </c>
       <c r="W46" t="n">
-        <v>1016.853929783322</v>
+        <v>1020.858557189262</v>
       </c>
       <c r="X46" t="n">
-        <v>817.5475435608973</v>
+        <v>821.5521709668371</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929598</v>
+        <v>629.4427564988996</v>
       </c>
     </row>
   </sheetData>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792226</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>96.13798426930805</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>82.70159106555843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>294.8707872801663</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>249.451501837949</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.253057640027</v>
+        <v>89.52456338962088</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>17.45080131650954</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>5.284192235662204</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.14213605696628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>86.0611365031295</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>105.0742887270152</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>200.1666207280857</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.67627119164564</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983815</v>
+        <v>23.93161001436297</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.14213605696713</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.55114770987305</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>150.0888768833851</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696666</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>253.6897617452261</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>63.2029272090098</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>202.3519294917589</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>87.65205602145039</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>32.42826541038533</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>125.4010782730774</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>49.42886232857619</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>69.68674104964541</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>21.37491637269721</v>
       </c>
       <c r="H40" t="n">
         <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>76.18486399333288</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121071</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>174.4731784754576</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>118.0893355541269</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100142</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.964581131881527</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732102.7947860796</v>
+        <v>732102.7947860797</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732102.7947860797</v>
+        <v>732102.7947860796</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746725.8067899158</v>
+        <v>746725.8067899157</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746725.8067899158</v>
+        <v>746725.8067899157</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746725.8067899158</v>
+        <v>746725.8067899157</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846415</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846412</v>
-      </c>
-      <c r="C2" t="n">
-        <v>697885.5043846413</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="F2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="H2" t="n">
         <v>675039.0377078712</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>675039.0377078713</v>
       </c>
-      <c r="H2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078715</v>
-      </c>
       <c r="J2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="K2" t="n">
         <v>675039.0377078712</v>
       </c>
       <c r="L2" t="n">
-        <v>688849.6601559387</v>
+        <v>688849.6601559388</v>
       </c>
       <c r="M2" t="n">
-        <v>688849.6601559392</v>
+        <v>688849.6601559386</v>
       </c>
       <c r="N2" t="n">
-        <v>688849.6601559387</v>
+        <v>688849.6601559391</v>
       </c>
       <c r="O2" t="n">
-        <v>688849.6601559394</v>
+        <v>688849.6601559388</v>
       </c>
       <c r="P2" t="n">
-        <v>688849.6601559393</v>
+        <v>688849.6601559389</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306931</v>
+        <v>22717.0664230693</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918992</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>18148.49231918995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
-        <v>27492.30103190632</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="M4" t="n">
+        <v>27492.30103190631</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27492.30103190626</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27492.30103190629</v>
+      </c>
+      <c r="P4" t="n">
         <v>27492.3010319063</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27492.30103190629</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27492.30103190631</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27492.30103190628</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26503,13 +26503,13 @@
         <v>98770.76957511491</v>
       </c>
       <c r="N5" t="n">
-        <v>98770.76957511491</v>
+        <v>98770.76957511493</v>
       </c>
       <c r="O5" t="n">
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158290.1397504407</v>
+        <v>-158290.1397504408</v>
       </c>
       <c r="C6" t="n">
-        <v>431677.7394641039</v>
+        <v>431677.7394641041</v>
       </c>
       <c r="D6" t="n">
-        <v>431677.7394641036</v>
+        <v>431677.7394641037</v>
       </c>
       <c r="E6" t="n">
-        <v>-166870.3868584386</v>
+        <v>-166937.5823486646</v>
       </c>
       <c r="F6" t="n">
-        <v>560507.0271349679</v>
+        <v>560439.8316447421</v>
       </c>
       <c r="G6" t="n">
-        <v>560507.0271349677</v>
+        <v>560439.8316447425</v>
       </c>
       <c r="H6" t="n">
-        <v>560507.027134968</v>
+        <v>560439.8316447418</v>
       </c>
       <c r="I6" t="n">
-        <v>560507.0271349679</v>
+        <v>560439.8316447419</v>
       </c>
       <c r="J6" t="n">
-        <v>384083.807942375</v>
+        <v>384016.6124521489</v>
       </c>
       <c r="K6" t="n">
-        <v>560507.0271349677</v>
+        <v>560439.8316447419</v>
       </c>
       <c r="L6" t="n">
-        <v>539869.5231258482</v>
+        <v>539842.9471134109</v>
       </c>
       <c r="M6" t="n">
-        <v>432944.2747099731</v>
+        <v>432917.6986975352</v>
       </c>
       <c r="N6" t="n">
-        <v>562586.5895489175</v>
+        <v>562560.0135364801</v>
       </c>
       <c r="O6" t="n">
-        <v>562586.5895489182</v>
+        <v>562560.0135364804</v>
       </c>
       <c r="P6" t="n">
-        <v>562586.5895489176</v>
+        <v>562560.0135364804</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26771,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,11 +26978,11 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>73.03089870524497</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4950479304469</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27588,19 +27588,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>157.4563804849782</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>210.6572032248191</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002915</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502542</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>906.0660702419976</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>635.0591000995346</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36124,10 +36124,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248955</v>
@@ -36136,13 +36136,13 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>854.0890375411587</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>635.0034264784697</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36753,7 +36753,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36771,7 +36771,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>802.9237881683853</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>648.2134880573209</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37233,16 +37233,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>641.306058528246</v>
+        <v>597.5775642778399</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190282</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>208.2378022852222</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731563</v>
       </c>
       <c r="L40" t="n">
         <v>348.1537051990348</v>
@@ -37713,7 +37713,7 @@
         <v>373.2532791963768</v>
       </c>
       <c r="O40" t="n">
-        <v>330.7494632514764</v>
+        <v>330.7494632514765</v>
       </c>
       <c r="P40" t="n">
         <v>263.3534041739471</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>404.0461784550341</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q43" t="n">
         <v>106.7905715667303</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859612</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990349</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223206</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963769</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739472</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
         <v>106.7905715667303</v>
